--- a/biology/Médecine/Sérum_de_veau_fœtal/Sérum_de_veau_fœtal.xlsx
+++ b/biology/Médecine/Sérum_de_veau_fœtal/Sérum_de_veau_fœtal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rum_de_veau_f%C5%93tal</t>
+          <t>Sérum_de_veau_fœtal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sérum de veau fœtal ou SVF est un sérum issu des fœtus de vache. Les protéines globulaires, nommées albumine de sérum bovin (ASB et BSA en anglais) sont le composant majeur du sérum de veau fœtal. L'importante variété de protéines dans le SVF maintient les cellules en culture dans un milieu dans lequel elles peuvent survivre, grandir et se multiplier. Cependant, la présence de tant de protéines différentes dans le milieu de culture, est un frein quant à la purification des protéines d'intérêt sécrétées par les cellules en culture. En effet, durant le procédé de purification, les protéines contaminantes devront être éliminées. 
 Le SVF est commercialisé par de nombreux fabricants, et connaissant la grande sensibilité des cellules en culture, il est plus sage de prendre du temps pour adapter les cellules en culture lors d'un changement de fournisseur de SVF, en mélangeant par exemple, 50 % du SVF précédemment utilisé avec 50 % du SVF du nouveau fournisseur et laisser les cellules un moment dans cet environnement.  
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rum_de_veau_f%C5%93tal</t>
+          <t>Sérum_de_veau_fœtal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sérum est utilisé pour produire des médicaments et des vaccins. Il sert également pour les cultures de cellules en laboratoire et est utile pour les transplantations d'organes[1]. Il est aussi utilisé pour produire la viande de synthèse[2], ceci dit, des substituts commencent à émerger, et certaines entreprises parviennent à s'en passer[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sérum est utilisé pour produire des médicaments et des vaccins. Il sert également pour les cultures de cellules en laboratoire et est utile pour les transplantations d'organes. Il est aussi utilisé pour produire la viande de synthèse, ceci dit, des substituts commencent à émerger, et certaines entreprises parviennent à s'en passer.
 </t>
         </is>
       </c>
